--- a/results/lin_models_single.xlsx
+++ b/results/lin_models_single.xlsx
@@ -1,134 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5119beb6994823d0/Utrecht/thesis/thesis_disclosed/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_269A3CD78F79A8D366075C52F37BD2722A450681" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3079118-F150-4487-BA9D-DA059461D95A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>rmse_mean</t>
-  </si>
-  <si>
-    <t>rmse_sd</t>
-  </si>
-  <si>
-    <t>rmse_cilow</t>
-  </si>
-  <si>
-    <t>rmse_cihigh</t>
-  </si>
-  <si>
-    <t>r2_trans_mean</t>
-  </si>
-  <si>
-    <t>r2_trans_sd</t>
-  </si>
-  <si>
-    <t>r2_trans_cilow</t>
-  </si>
-  <si>
-    <t>r2_trans_cihigh</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,23 +59,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -230,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,770 +350,1153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_min</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_pct25</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_pct75</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_max</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_sd</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_cilow</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_cihigh</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>r2_trans_mean</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>r2_trans_sd</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>r2_trans_cilow</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>r2_trans_cihigh</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2">
-        <v>2.5045527180959719</v>
+        <v>2.817613697076137</v>
       </c>
       <c r="C2">
-        <v>5.5774722495655647E-2</v>
+        <v>2.707513232841463</v>
       </c>
       <c r="D2">
-        <v>2.5044469310557229</v>
+        <v>2.783145849340705</v>
       </c>
       <c r="E2">
-        <v>2.5046585051362209</v>
+        <v>2.852370984744872</v>
       </c>
       <c r="F2">
-        <v>6.4390512754800858E-2</v>
+        <v>2.953062326764117</v>
       </c>
       <c r="G2">
-        <v>3.9768369326401293E-3</v>
+        <v>0.05060743389379786</v>
       </c>
       <c r="H2">
-        <v>6.4383001180905064E-2</v>
+        <v>2.807694640032952</v>
       </c>
       <c r="I2">
-        <v>6.4398024321399988E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
+        <v>2.827532754119321</v>
+      </c>
+      <c r="J2">
+        <v>0.05594983142566231</v>
+      </c>
+      <c r="K2">
+        <v>0.003741058449245745</v>
+      </c>
+      <c r="L2">
+        <v>0.05521884604754074</v>
+      </c>
+      <c r="M2">
+        <v>0.05668075682852049</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3">
-        <v>2.4415176003851911</v>
+        <v>2.817074993553627</v>
       </c>
       <c r="C3">
-        <v>5.7615150356828293E-2</v>
+        <v>2.706532767014392</v>
       </c>
       <c r="D3">
-        <v>2.4414083226343202</v>
+        <v>2.782505592874509</v>
       </c>
       <c r="E3">
-        <v>2.4416268781360619</v>
+        <v>2.852019474221718</v>
       </c>
       <c r="F3">
-        <v>0.1109108815041413</v>
+        <v>2.952582451367771</v>
       </c>
       <c r="G3">
-        <v>9.5681899532634347E-3</v>
+        <v>0.05067887583347807</v>
       </c>
       <c r="H3">
-        <v>0.1108929563259948</v>
+        <v>2.807141933890265</v>
       </c>
       <c r="I3">
-        <v>0.1109288066101264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
+        <v>2.827008053216988</v>
+      </c>
+      <c r="J3">
+        <v>0.05631087069180284</v>
+      </c>
+      <c r="K3">
+        <v>0.00374711127894657</v>
+      </c>
+      <c r="L3">
+        <v>0.05557873213394129</v>
+      </c>
+      <c r="M3">
+        <v>0.05704294869436245</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B4">
-        <v>2.4299283683830248</v>
+        <v>2.806019197587639</v>
       </c>
       <c r="C4">
-        <v>5.7737749984107911E-2</v>
+        <v>2.697412577960828</v>
       </c>
       <c r="D4">
-        <v>2.4298188580993672</v>
+        <v>2.772001859510997</v>
       </c>
       <c r="E4">
-        <v>2.4300378786666839</v>
+        <v>2.840379947571631</v>
       </c>
       <c r="F4">
-        <v>0.11932441958639479</v>
+        <v>2.943416742090085</v>
       </c>
       <c r="G4">
-        <v>1.0815957174384289E-2</v>
+        <v>0.05082288777424761</v>
       </c>
       <c r="H4">
-        <v>0.11930419638348259</v>
+        <v>2.796057911583887</v>
       </c>
       <c r="I4">
-        <v>0.1193446426902954</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
+        <v>2.815980483591392</v>
+      </c>
+      <c r="J4">
+        <v>0.06370661247519761</v>
+      </c>
+      <c r="K4">
+        <v>0.003756253657217182</v>
+      </c>
+      <c r="L4">
+        <v>0.06297333704572136</v>
+      </c>
+      <c r="M4">
+        <v>0.06443981912276564</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B5">
-        <v>2.5872646641801178</v>
+        <v>2.899738445616153</v>
       </c>
       <c r="C5">
-        <v>5.404979025935637E-2</v>
+        <v>2.786154088114967</v>
       </c>
       <c r="D5">
-        <v>2.587162148791752</v>
+        <v>2.864049266820576</v>
       </c>
       <c r="E5">
-        <v>2.5873671795684841</v>
+        <v>2.934035316657764</v>
       </c>
       <c r="F5">
-        <v>1.5223631868291139E-3</v>
+        <v>3.045862213297732</v>
       </c>
       <c r="G5">
-        <v>1.2364801939398391E-3</v>
+        <v>0.05251963927390901</v>
       </c>
       <c r="H5">
-        <v>1.5200179784951671E-3</v>
+        <v>2.889444596318467</v>
       </c>
       <c r="I5">
-        <v>1.524708395146335E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
+        <v>2.91003229491384</v>
+      </c>
+      <c r="J5">
+        <v>0.0001275822872001578</v>
+      </c>
+      <c r="K5">
+        <v>0.0002400504897645726</v>
+      </c>
+      <c r="L5">
+        <v>8.053239082072971e-05</v>
+      </c>
+      <c r="M5">
+        <v>0.0001746321830147177</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B6">
-        <v>2.5848594263984719</v>
+        <v>2.899726815600998</v>
       </c>
       <c r="C6">
-        <v>5.3852775671112942E-2</v>
+        <v>2.786138214076667</v>
       </c>
       <c r="D6">
-        <v>2.5847572846845819</v>
+        <v>2.864039839577579</v>
       </c>
       <c r="E6">
-        <v>2.5849615681123619</v>
+        <v>2.934031106014401</v>
       </c>
       <c r="F6">
-        <v>3.3687344077987132E-3</v>
+        <v>3.045855285046234</v>
       </c>
       <c r="G6">
-        <v>3.0382274443155042E-3</v>
+        <v>0.0525155647617791</v>
       </c>
       <c r="H6">
-        <v>3.3629718970715509E-3</v>
+        <v>2.889433764907689</v>
       </c>
       <c r="I6">
-        <v>3.3744969183022279E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
+        <v>2.910019866294306</v>
+      </c>
+      <c r="J6">
+        <v>0.0001346354602697887</v>
+      </c>
+      <c r="K6">
+        <v>0.0002553299594069245</v>
+      </c>
+      <c r="L6">
+        <v>8.459078775026635e-05</v>
+      </c>
+      <c r="M6">
+        <v>0.0001846801321149946</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B7">
-        <v>2.5846951750626381</v>
+        <v>2.899725014624042</v>
       </c>
       <c r="C7">
-        <v>5.3825769175856637E-2</v>
+        <v>2.786136262392508</v>
       </c>
       <c r="D7">
-        <v>2.5845930845715439</v>
+        <v>2.864038792861989</v>
       </c>
       <c r="E7">
-        <v>2.5847972655537328</v>
+        <v>2.934028623777257</v>
       </c>
       <c r="F7">
-        <v>3.491526714105026E-3</v>
+        <v>3.045855280365434</v>
       </c>
       <c r="G7">
-        <v>3.1482616657507838E-3</v>
+        <v>0.05251514467621374</v>
       </c>
       <c r="H7">
-        <v>3.485555508586897E-3</v>
+        <v>2.889432046267504</v>
       </c>
       <c r="I7">
-        <v>3.4974979193742308E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
+        <v>2.910017982980579</v>
+      </c>
+      <c r="J7">
+        <v>0.0001349557859990503</v>
+      </c>
+      <c r="K7">
+        <v>0.0002571846248237224</v>
+      </c>
+      <c r="L7">
+        <v>8.454759904007551e-05</v>
+      </c>
+      <c r="M7">
+        <v>0.0001853639722721977</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B8">
-        <v>2.5816588770172668</v>
+        <v>2.88664011107914</v>
       </c>
       <c r="C8">
-        <v>5.4393957734141671E-2</v>
+        <v>2.772609774903788</v>
       </c>
       <c r="D8">
-        <v>2.581555708851857</v>
+        <v>2.850370712646838</v>
       </c>
       <c r="E8">
-        <v>2.5817620451826779</v>
+        <v>2.920598451395736</v>
       </c>
       <c r="F8">
-        <v>5.8522709252641124E-3</v>
+        <v>3.035420159393724</v>
       </c>
       <c r="G8">
-        <v>6.8250552841475826E-4</v>
+        <v>0.05313007798973928</v>
       </c>
       <c r="H8">
-        <v>5.8509764718712998E-3</v>
+        <v>2.876226615793152</v>
       </c>
       <c r="I8">
-        <v>5.8535653786373574E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
+        <v>2.897053606365129</v>
+      </c>
+      <c r="J8">
+        <v>0.009150353244044606</v>
+      </c>
+      <c r="K8">
+        <v>0.000720095877786266</v>
+      </c>
+      <c r="L8">
+        <v>0.009009226063685712</v>
+      </c>
+      <c r="M8">
+        <v>0.009291480059880897</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="B9">
-        <v>2.5659162713131951</v>
+        <v>2.873833636979135</v>
       </c>
       <c r="C9">
-        <v>5.4789538670840882E-2</v>
+        <v>2.75760333287785</v>
       </c>
       <c r="D9">
-        <v>2.5658123528556351</v>
+        <v>2.837281086372074</v>
       </c>
       <c r="E9">
-        <v>2.566020189770756</v>
+        <v>2.907976852419495</v>
       </c>
       <c r="F9">
-        <v>1.7947333460157769E-2</v>
+        <v>3.022953877452172</v>
       </c>
       <c r="G9">
-        <v>1.449513259166113E-3</v>
+        <v>0.05325928046297301</v>
       </c>
       <c r="H9">
-        <v>1.7944585074620531E-2</v>
+        <v>2.863394818008392</v>
       </c>
       <c r="I9">
-        <v>1.7950081845423831E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
+        <v>2.884272455949877</v>
+      </c>
+      <c r="J9">
+        <v>0.01792608013846794</v>
+      </c>
+      <c r="K9">
+        <v>0.0009439175084403493</v>
+      </c>
+      <c r="L9">
+        <v>0.01774113109183931</v>
+      </c>
+      <c r="M9">
+        <v>0.01811102795834614</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B10">
-        <v>2.546738010624038</v>
+        <v>2.855553935945631</v>
       </c>
       <c r="C10">
-        <v>5.5203436502828301E-2</v>
+        <v>2.737014953172535</v>
       </c>
       <c r="D10">
-        <v>2.546633307132959</v>
+        <v>2.819360370283026</v>
       </c>
       <c r="E10">
-        <v>2.5468427141151162</v>
+        <v>2.890146485386227</v>
       </c>
       <c r="F10">
-        <v>3.2582042623423749E-2</v>
+        <v>3.003712177973314</v>
       </c>
       <c r="G10">
-        <v>1.9476018745971781E-3</v>
+        <v>0.05320414037431877</v>
       </c>
       <c r="H10">
-        <v>3.2578352553920942E-2</v>
+        <v>2.845125924432265</v>
       </c>
       <c r="I10">
-        <v>3.2585732692038252E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
+        <v>2.865981947458998</v>
+      </c>
+      <c r="J10">
+        <v>0.03038198293515395</v>
+      </c>
+      <c r="K10">
+        <v>0.001399028088046944</v>
+      </c>
+      <c r="L10">
+        <v>0.0301080240888321</v>
+      </c>
+      <c r="M10">
+        <v>0.03065593721679311</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="B11">
-        <v>2.5038075050768609</v>
+        <v>2.817475914014241</v>
       </c>
       <c r="C11">
-        <v>5.5737357886202349E-2</v>
+        <v>2.707342876178477</v>
       </c>
       <c r="D11">
-        <v>2.50370178890548</v>
+        <v>2.783128482538181</v>
       </c>
       <c r="E11">
-        <v>2.5039132212482431</v>
+        <v>2.852354737618905</v>
       </c>
       <c r="F11">
-        <v>6.4942975262654301E-2</v>
+        <v>2.952882904478129</v>
       </c>
       <c r="G11">
-        <v>4.2222916679289678E-3</v>
+        <v>0.05055775527366756</v>
       </c>
       <c r="H11">
-        <v>6.4935000632774104E-2</v>
+        <v>2.807566593980602</v>
       </c>
       <c r="I11">
-        <v>6.4950949884239356E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
+        <v>2.82738523404788</v>
+      </c>
+      <c r="J11">
+        <v>0.056040722630177</v>
+      </c>
+      <c r="K11">
+        <v>0.003745969573247177</v>
+      </c>
+      <c r="L11">
+        <v>0.05530878501826112</v>
+      </c>
+      <c r="M11">
+        <v>0.05677260001218655</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="B12">
-        <v>2.4899268364565672</v>
+        <v>2.81004771744611</v>
       </c>
       <c r="C12">
-        <v>5.5957543215928017E-2</v>
+        <v>2.70138836129847</v>
       </c>
       <c r="D12">
-        <v>2.4898207026631289</v>
+        <v>2.775348392801457</v>
       </c>
       <c r="E12">
-        <v>2.490032970250005</v>
+        <v>2.844510756419142</v>
       </c>
       <c r="F12">
-        <v>7.5285536878420975E-2</v>
+        <v>2.939174583619061</v>
       </c>
       <c r="G12">
-        <v>5.3565810147281302E-3</v>
+        <v>0.04962404110306533</v>
       </c>
       <c r="H12">
-        <v>7.5275434615513948E-2</v>
+        <v>2.800321405389909</v>
       </c>
       <c r="I12">
-        <v>7.5295639125873837E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
+        <v>2.819774029502311</v>
+      </c>
+      <c r="J12">
+        <v>0.06099748209281644</v>
+      </c>
+      <c r="K12">
+        <v>0.004946227541775225</v>
+      </c>
+      <c r="L12">
+        <v>0.06003156386591698</v>
+      </c>
+      <c r="M12">
+        <v>0.06196328608709203</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="B13">
-        <v>2.5797447971819891</v>
+        <v>2.886450183904641</v>
       </c>
       <c r="C13">
-        <v>5.4301920986465267E-2</v>
+        <v>2.772254727820171</v>
       </c>
       <c r="D13">
-        <v>2.5796418035812319</v>
+        <v>2.850269871976249</v>
       </c>
       <c r="E13">
-        <v>2.5798477907827451</v>
+        <v>2.920456597768722</v>
       </c>
       <c r="F13">
-        <v>7.3214042869820832E-3</v>
+        <v>3.035373851751114</v>
       </c>
       <c r="G13">
-        <v>1.2423230199041029E-3</v>
+        <v>0.05307992811837128</v>
       </c>
       <c r="H13">
-        <v>7.3190481174716928E-3</v>
+        <v>2.87604651799344</v>
       </c>
       <c r="I13">
-        <v>7.3237604564111089E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
+        <v>2.896853849815841</v>
+      </c>
+      <c r="J13">
+        <v>0.009279249670312991</v>
+      </c>
+      <c r="K13">
+        <v>0.0007265196990167989</v>
+      </c>
+      <c r="L13">
+        <v>0.009136863858168389</v>
+      </c>
+      <c r="M13">
+        <v>0.009421635106176387</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B14">
-        <v>2.4893793032622318</v>
+        <v>2.809912109101105</v>
       </c>
       <c r="C14">
-        <v>5.5938567721829757E-2</v>
+        <v>2.701253428075445</v>
       </c>
       <c r="D14">
-        <v>2.4892732054593161</v>
+        <v>2.775316311547749</v>
       </c>
       <c r="E14">
-        <v>2.4894854010651488</v>
+        <v>2.844438366838975</v>
       </c>
       <c r="F14">
-        <v>7.5688145632133455E-2</v>
+        <v>2.938930901883752</v>
       </c>
       <c r="G14">
-        <v>5.5573526735088093E-3</v>
+        <v>0.04957457993244805</v>
       </c>
       <c r="H14">
-        <v>7.5677665355902507E-2</v>
+        <v>2.800195491434345</v>
       </c>
       <c r="I14">
-        <v>7.5698625891642002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
+        <v>2.819628726767865</v>
+      </c>
+      <c r="J14">
+        <v>0.06108666812709894</v>
+      </c>
+      <c r="K14">
+        <v>0.004954754308173151</v>
+      </c>
+      <c r="L14">
+        <v>0.06011909512660536</v>
+      </c>
+      <c r="M14">
+        <v>0.06205412633442903</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="B15">
-        <v>2.4383258344324439</v>
+        <v>2.816919046977791</v>
       </c>
       <c r="C15">
-        <v>5.7610483856857603E-2</v>
+        <v>2.706317744386054</v>
       </c>
       <c r="D15">
-        <v>2.4382165655324508</v>
+        <v>2.782490985574596</v>
       </c>
       <c r="E15">
-        <v>2.4384351033324378</v>
+        <v>2.852001664949444</v>
       </c>
       <c r="F15">
-        <v>0.1132205100618919</v>
+        <v>2.952414903044331</v>
       </c>
       <c r="G15">
-        <v>1.0600039821079651E-2</v>
+        <v>0.05062453418478458</v>
       </c>
       <c r="H15">
-        <v>0.1132006620670034</v>
+        <v>2.806996638277574</v>
       </c>
       <c r="I15">
-        <v>0.1132403579664177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
+        <v>2.826841455678009</v>
+      </c>
+      <c r="J15">
+        <v>0.05641299389905003</v>
+      </c>
+      <c r="K15">
+        <v>0.003752843703749132</v>
+      </c>
+      <c r="L15">
+        <v>0.05567974365360201</v>
+      </c>
+      <c r="M15">
+        <v>0.05714618329432045</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B16">
-        <v>2.4172271043513498</v>
+        <v>2.809024742910751</v>
       </c>
       <c r="C16">
-        <v>5.8536030577553917E-2</v>
+        <v>2.699813291270327</v>
       </c>
       <c r="D16">
-        <v>2.417116079981426</v>
+        <v>2.774199655824936</v>
       </c>
       <c r="E16">
-        <v>2.4173381287212732</v>
+        <v>2.843661237978856</v>
       </c>
       <c r="F16">
-        <v>0.12850593757866499</v>
+        <v>2.937755675286719</v>
       </c>
       <c r="G16">
-        <v>1.252576775385048E-2</v>
+        <v>0.04966666794986878</v>
       </c>
       <c r="H16">
-        <v>0.1284825711830973</v>
+        <v>2.799290075992577</v>
       </c>
       <c r="I16">
-        <v>0.12852930383155189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>24</v>
+        <v>2.818759409828925</v>
+      </c>
+      <c r="J16">
+        <v>0.06167978953947398</v>
+      </c>
+      <c r="K16">
+        <v>0.004999669074932858</v>
+      </c>
+      <c r="L16">
+        <v>0.06070351563230762</v>
+      </c>
+      <c r="M16">
+        <v>0.06265594543655559</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="B17">
-        <v>2.5620056123573161</v>
+        <v>2.873630648384117</v>
       </c>
       <c r="C17">
-        <v>5.4477189446599489E-2</v>
+        <v>2.75722987533273</v>
       </c>
       <c r="D17">
-        <v>2.5619022863276242</v>
+        <v>2.837034386248871</v>
       </c>
       <c r="E17">
-        <v>2.5621089383870079</v>
+        <v>2.907860355562901</v>
       </c>
       <c r="F17">
-        <v>2.0925758388166928E-2</v>
+        <v>3.022901642134162</v>
       </c>
       <c r="G17">
-        <v>2.8690804892620458E-3</v>
+        <v>0.05320497358832381</v>
       </c>
       <c r="H17">
-        <v>2.0920319015584839E-2</v>
+        <v>2.863202473560805</v>
       </c>
       <c r="I17">
-        <v>2.093119775951013E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>25</v>
+        <v>2.884058823207428</v>
+      </c>
+      <c r="J17">
+        <v>0.01806238223079974</v>
+      </c>
+      <c r="K17">
+        <v>0.0009494327881445332</v>
+      </c>
+      <c r="L17">
+        <v>0.01787635343670727</v>
+      </c>
+      <c r="M17">
+        <v>0.01824840977433315</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B18">
-        <v>2.4147394660350381</v>
+        <v>2.808874557493659</v>
       </c>
       <c r="C18">
-        <v>5.8610532738695258E-2</v>
+        <v>2.699634929753003</v>
       </c>
       <c r="D18">
-        <v>2.4146283003580349</v>
+        <v>2.77417400895111</v>
       </c>
       <c r="E18">
-        <v>2.41485063171204</v>
+        <v>2.843598676519815</v>
       </c>
       <c r="F18">
-        <v>0.13028575586998939</v>
+        <v>2.937526239491016</v>
       </c>
       <c r="G18">
-        <v>1.34183552002488E-2</v>
+        <v>0.04961282255128252</v>
       </c>
       <c r="H18">
-        <v>0.1302607359061819</v>
+        <v>2.799150444273608</v>
       </c>
       <c r="I18">
-        <v>0.130310775667864</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
+        <v>2.818598670713711</v>
+      </c>
+      <c r="J18">
+        <v>0.06177777076852369</v>
+      </c>
+      <c r="K18">
+        <v>0.00500875099489146</v>
+      </c>
+      <c r="L18">
+        <v>0.06079973510187224</v>
+      </c>
+      <c r="M18">
+        <v>0.06275568780925678</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="B19">
-        <v>2.4266665050297291</v>
+        <v>2.805846644340058</v>
       </c>
       <c r="C19">
-        <v>5.776207686736913E-2</v>
+        <v>2.697144397826994</v>
       </c>
       <c r="D19">
-        <v>2.4265569486056529</v>
+        <v>2.771988051128137</v>
       </c>
       <c r="E19">
-        <v>2.426776061453805</v>
+        <v>2.840190617315764</v>
       </c>
       <c r="F19">
-        <v>0.1216702314793353</v>
+        <v>2.943282639989045</v>
       </c>
       <c r="G19">
-        <v>1.1880319080482839E-2</v>
+        <v>0.0507672604147492</v>
       </c>
       <c r="H19">
-        <v>0.1216480307330363</v>
+        <v>2.795896261298767</v>
       </c>
       <c r="I19">
-        <v>0.1216924321038967</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
+        <v>2.815797027381349</v>
+      </c>
+      <c r="J19">
+        <v>0.06381857901266944</v>
+      </c>
+      <c r="K19">
+        <v>0.003753614433040812</v>
+      </c>
+      <c r="L19">
+        <v>0.06308582927203071</v>
+      </c>
+      <c r="M19">
+        <v>0.06455125994829204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="B20">
-        <v>2.398843806559384</v>
+        <v>2.796473795930911</v>
       </c>
       <c r="C20">
-        <v>5.9203028736755668E-2</v>
+        <v>2.687295747352004</v>
       </c>
       <c r="D20">
-        <v>2.398731517104526</v>
+        <v>2.762284477696562</v>
       </c>
       <c r="E20">
-        <v>2.3989560960142411</v>
+        <v>2.831817530088176</v>
       </c>
       <c r="F20">
-        <v>0.14169573425274071</v>
+        <v>2.929333929972473</v>
       </c>
       <c r="G20">
-        <v>1.506581442626626E-2</v>
+        <v>0.05019625619348973</v>
       </c>
       <c r="H20">
-        <v>0.14166773064848781</v>
+        <v>2.786635329716987</v>
       </c>
       <c r="I20">
-        <v>0.14172373763020599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>28</v>
+        <v>2.806312262144835</v>
+      </c>
+      <c r="J20">
+        <v>0.07005600904294432</v>
+      </c>
+      <c r="K20">
+        <v>0.004312765689203342</v>
+      </c>
+      <c r="L20">
+        <v>0.06921480074869001</v>
+      </c>
+      <c r="M20">
+        <v>0.0708971177123347</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B21">
-        <v>2.5429659071435591</v>
+        <v>2.855352924104731</v>
       </c>
       <c r="C21">
-        <v>5.4871069942705741E-2</v>
+        <v>2.736653365671155</v>
       </c>
       <c r="D21">
-        <v>2.5428618340469149</v>
+        <v>2.819121094193129</v>
       </c>
       <c r="E21">
-        <v>2.5430699802402019</v>
+        <v>2.890060149722797</v>
       </c>
       <c r="F21">
-        <v>3.5429642512991001E-2</v>
+        <v>3.003653211566499</v>
       </c>
       <c r="G21">
-        <v>3.1584031832293459E-3</v>
+        <v>0.05314975836957159</v>
       </c>
       <c r="H21">
-        <v>3.5423659517734497E-2</v>
+        <v>2.844935571464295</v>
       </c>
       <c r="I21">
-        <v>3.5435625505707918E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>29</v>
+        <v>2.865770276745167</v>
+      </c>
+      <c r="J21">
+        <v>0.03051518607808428</v>
+      </c>
+      <c r="K21">
+        <v>0.001408587078151738</v>
+      </c>
+      <c r="L21">
+        <v>0.03023935759365643</v>
+      </c>
+      <c r="M21">
+        <v>0.03079100991498936</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="B22">
-        <v>2.3964631704161352</v>
+        <v>2.796308550859095</v>
       </c>
       <c r="C22">
-        <v>5.9339664350263749E-2</v>
+        <v>2.687048739050613</v>
       </c>
       <c r="D22">
-        <v>2.3963506218066559</v>
+        <v>2.762267101744686</v>
       </c>
       <c r="E22">
-        <v>2.3965757190256149</v>
+        <v>2.831736604188833</v>
       </c>
       <c r="F22">
-        <v>0.14338231870682561</v>
+        <v>2.929153292433603</v>
       </c>
       <c r="G22">
-        <v>1.594808163817223E-2</v>
+        <v>0.05014168625435017</v>
       </c>
       <c r="H22">
-        <v>0.1433526894531606</v>
+        <v>2.786480780353242</v>
       </c>
       <c r="I22">
-        <v>0.14341194770346011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
+        <v>2.806136321364947</v>
+      </c>
+      <c r="J22">
+        <v>0.07016274616745249</v>
+      </c>
+      <c r="K22">
+        <v>0.0043140142516305</v>
+      </c>
+      <c r="L22">
+        <v>0.06932130690259077</v>
+      </c>
+      <c r="M22">
+        <v>0.07100408559938315</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="B23">
-        <v>2.5029497126066218</v>
+        <v>2.817458292932712</v>
       </c>
       <c r="C23">
-        <v>5.5686400809807628E-2</v>
+        <v>2.707312429113277</v>
       </c>
       <c r="D23">
-        <v>2.5028440930847271</v>
+        <v>2.783126504284212</v>
       </c>
       <c r="E23">
-        <v>2.5030553321285169</v>
+        <v>2.852351053094451</v>
       </c>
       <c r="F23">
-        <v>6.5578719723463783E-2</v>
+        <v>2.952881714770957</v>
       </c>
       <c r="G23">
-        <v>4.5616126222324943E-3</v>
+        <v>0.05055335483711279</v>
       </c>
       <c r="H23">
-        <v>6.5570104928055692E-2</v>
+        <v>2.807549835384638</v>
       </c>
       <c r="I23">
-        <v>6.5587334509095943E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>31</v>
+        <v>2.827366750480786</v>
+      </c>
+      <c r="J23">
+        <v>0.05605161291913631</v>
+      </c>
+      <c r="K23">
+        <v>0.003747147509027815</v>
+      </c>
+      <c r="L23">
+        <v>0.05531944602556543</v>
+      </c>
+      <c r="M23">
+        <v>0.05678371953327743</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="B24">
-        <v>2.4731658697848569</v>
+        <v>2.785266646445137</v>
       </c>
       <c r="C24">
-        <v>5.639609673316482E-2</v>
+        <v>2.673292064162484</v>
       </c>
       <c r="D24">
-        <v>2.47305890419385</v>
+        <v>2.750400126099357</v>
       </c>
       <c r="E24">
-        <v>2.4732728353758651</v>
+        <v>2.818155363812307</v>
       </c>
       <c r="F24">
-        <v>8.7699312049391021E-2</v>
+        <v>2.914647579903818</v>
       </c>
       <c r="G24">
-        <v>6.2018446074349276E-3</v>
+        <v>0.04980530463977946</v>
       </c>
       <c r="H24">
-        <v>8.7687639417196581E-2</v>
+        <v>2.77550480673574</v>
       </c>
       <c r="I24">
-        <v>8.7710984657502045E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
+        <v>2.795028486154533</v>
+      </c>
+      <c r="J24">
+        <v>0.07749169481065961</v>
+      </c>
+      <c r="K24">
+        <v>0.005130525590956883</v>
+      </c>
+      <c r="L24">
+        <v>0.07649206395385581</v>
+      </c>
+      <c r="M24">
+        <v>0.07849116988715418</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="B25">
-        <v>2.5797287935251951</v>
+        <v>2.886438132940552</v>
       </c>
       <c r="C25">
-        <v>5.4301656491505992E-2</v>
+        <v>2.77223566124161</v>
       </c>
       <c r="D25">
-        <v>2.5796258004261019</v>
+        <v>2.85026137915938</v>
       </c>
       <c r="E25">
-        <v>2.5798317866242879</v>
+        <v>2.920448896029693</v>
       </c>
       <c r="F25">
-        <v>7.3305703932576589E-3</v>
+        <v>3.035368324811562</v>
       </c>
       <c r="G25">
-        <v>1.2457918183605579E-3</v>
+        <v>0.05307620379864074</v>
       </c>
       <c r="H25">
-        <v>7.3282076451913116E-3</v>
+        <v>2.876035196996019</v>
       </c>
       <c r="I25">
-        <v>7.332933141242148E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>33</v>
+        <v>2.896841068885086</v>
+      </c>
+      <c r="J25">
+        <v>0.009286568979513446</v>
+      </c>
+      <c r="K25">
+        <v>0.000729435453800109</v>
+      </c>
+      <c r="L25">
+        <v>0.009143611746112931</v>
+      </c>
+      <c r="M25">
+        <v>0.009429525833307232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="B26">
-        <v>2.4713892480131081</v>
+        <v>2.785114142056348</v>
       </c>
       <c r="C26">
-        <v>5.6350497589742712E-2</v>
+        <v>2.673132140457669</v>
       </c>
       <c r="D26">
-        <v>2.47128236890928</v>
+        <v>2.750329383244191</v>
       </c>
       <c r="E26">
-        <v>2.4714961271169358</v>
+        <v>2.818033843195105</v>
       </c>
       <c r="F26">
-        <v>8.8994108992897614E-2</v>
+        <v>2.914396048332127</v>
       </c>
       <c r="G26">
-        <v>6.8570086535713632E-3</v>
+        <v>0.04975153434555351</v>
       </c>
       <c r="H26">
-        <v>8.898120619867711E-2</v>
+        <v>2.775362841324619</v>
       </c>
       <c r="I26">
-        <v>8.9007011757249815E-2</v>
+        <v>2.794865442788076</v>
+      </c>
+      <c r="J26">
+        <v>0.07758869649706018</v>
+      </c>
+      <c r="K26">
+        <v>0.005140530661914597</v>
+      </c>
+      <c r="L26">
+        <v>0.07658713112844598</v>
+      </c>
+      <c r="M26">
+        <v>0.07859010528379361</v>
       </c>
     </row>
   </sheetData>
